--- a/Countries List.xlsx
+++ b/Countries List.xlsx
@@ -437,11 +437,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
